--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chinese-Keyphrase-Extraction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113753D-B386-4FBC-92A3-1B607B4D20F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C5D3A-4985-462F-A437-DF59F7A3A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32280" yWindow="-4290" windowWidth="21840" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50640,13 +50640,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -50929,8 +50928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -50946,7 +50945,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.5">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>819</v>
       </c>
@@ -51043,7 +51042,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>824</v>
       </c>
       <c r="B14" t="s">
